--- a/annotation_status.xlsx
+++ b/annotation_status.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t xml:space="preserve">FileName</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">20200417_152052_943_WellD04_PointD04_0000_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0369.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200417_152052_943_WellD07_PointD07_0007_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0349.h5</t>
   </si>
 </sst>
 </file>
@@ -82,6 +85,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -167,15 +171,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="137"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -272,6 +277,14 @@
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/annotation_status.xlsx
+++ b/annotation_status.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">20200417_132123_311_WellD06_PointD06_0005_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0365.h5</t>
   </si>
   <si>
-    <t xml:space="preserve">second_pass</t>
+    <t xml:space="preserve">proofread</t>
   </si>
   <si>
     <t xml:space="preserve">20200417_132123_311_WellF02_PointF02_0002_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0596.h5</t>
@@ -174,7 +174,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/annotation_status.xlsx
+++ b/annotation_status.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t xml:space="preserve">FileName</t>
   </si>
@@ -71,6 +71,36 @@
   </si>
   <si>
     <t xml:space="preserve">20200417_152052_943_WellD07_PointD07_0007_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0349.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200417_172611_193_WellB03_PointB03_0006_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0150.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200417_172611_193_WellG02_PointG02_0001_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0487.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200417_172611_193_WellG05_PointG05_0006_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0519.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200417_203228_156_WellD10_PointD10_0005_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0284.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200417_203228_156_WellF10_PointF10_0007_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0439.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200420_164920_764_WellC03_PointC03_0004_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0193.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200420_164920_764_WellD10_PointD10_0001_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0280.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plate7rep1_20200426_103425_693_WellA06_PointA06_0001_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0046.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plate7rep1_20200426_103425_693_WellC10_PointC10_0005_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0293.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plate7rep1_20200426_103425_693_WellD09_PointD09_0007_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0349.h5</t>
   </si>
 </sst>
 </file>
@@ -171,10 +201,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -287,6 +317,174 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/annotation_status.xlsx
+++ b/annotation_status.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
   <si>
     <t xml:space="preserve">FileName</t>
   </si>
@@ -101,6 +101,66 @@
   </si>
   <si>
     <t xml:space="preserve">plate7rep1_20200426_103425_693_WellD09_PointD09_0007_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0349.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK10rep1_20200429_122048_065_WellA06_PointA06_0007_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0052.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">second_pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK10rep1_20200429_122048_065_WellG06_PointG06_0005_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0662.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK10rep1_20200429_122048_065_WellH02_PointH02_0003_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0813.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK11rep1_20200429_140316_208_WellD05_PointD05_0007_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0394.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK11rep1_20200429_140316_208_WellE05_PointE05_0004_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0454.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK11rep1_20200429_140316_208_WellH06_PointH06_0006_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0780.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK12rep1_20200430_155932_313_WellC08_PointC08_0000_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0279.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK12rep1_20200430_155932_313_WellD09_PointD09_0003_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0354.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK12rep1_20200430_155932_313_WellF04_PointF04_0002_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0614.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK13rep1_20200430_175056_461_WellA10_PointA10_0007_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0088.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK13rep1_20200430_175056_461_WellE04_PointE04_0000_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0108.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK13rep1_20200430_175056_461_WellF02_PointF02_0008_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0161.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK13rep1_20200430_175056_461_WellF08_PointF08_0008_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0215.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK14rep1_20200430_194338_941_WellE09_PointE09_0002_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0506.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK14rep1_20200430_194338_941_WellF02_PointF02_0003_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0633.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK14rep1_20200430_194338_941_WellG04_PointG04_0008_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0683.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titration_plate_20200403_154849_WellD01_PointD01_0004_ChannelDAPI,WF_GFP,TRITC,WF_Cy5_Seq0427.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titration_plate_20200403_154849_WellD10_PointD10_0006_ChannelDAPI,WF_GFP,TRITC,WF_Cy5_Seq0348.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titration_plate_20200403_154849_WellH08_PointH08_0008_ChannelDAPI,WF_GFP,TRITC,WF_Cy5_Seq0800.h5</t>
   </si>
 </sst>
 </file>
@@ -201,10 +261,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -485,6 +545,158 @@
         <v>5</v>
       </c>
     </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/annotation_status.xlsx
+++ b/annotation_status.xlsx
@@ -106,19 +106,19 @@
     <t xml:space="preserve">plateK10rep1_20200429_122048_065_WellA06_PointA06_0007_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0052.h5</t>
   </si>
   <si>
+    <t xml:space="preserve">plateK10rep1_20200429_122048_065_WellG06_PointG06_0005_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0662.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK10rep1_20200429_122048_065_WellH02_PointH02_0003_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0813.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK11rep1_20200429_140316_208_WellD05_PointD05_0007_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0394.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateK11rep1_20200429_140316_208_WellE05_PointE05_0004_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0454.h5</t>
+  </si>
+  <si>
     <t xml:space="preserve">second_pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plateK10rep1_20200429_122048_065_WellG06_PointG06_0005_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0662.h5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plateK10rep1_20200429_122048_065_WellH02_PointH02_0003_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0813.h5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plateK11rep1_20200429_140316_208_WellD05_PointD05_0007_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0394.h5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plateK11rep1_20200429_140316_208_WellE05_PointE05_0004_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0454.h5</t>
   </si>
   <si>
     <t xml:space="preserve">plateK11rep1_20200429_140316_208_WellH06_PointH06_0006_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0780.h5</t>
@@ -263,8 +263,8 @@
   </sheetPr>
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -550,20 +550,20 @@
         <v>27</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>5</v>
@@ -571,18 +571,18 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -590,7 +590,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,7 +598,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,7 +606,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,7 +614,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -622,7 +622,7 @@
         <v>37</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,7 +638,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,7 +646,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,7 +654,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -662,7 +662,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,7 +670,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,7 +678,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,7 +686,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,7 +694,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/annotation_status.xlsx
+++ b/annotation_status.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t xml:space="preserve">FileName</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">plateK11rep1_20200429_140316_208_WellE05_PointE05_0004_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0454.h5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">second_pass</t>
   </si>
   <si>
     <t xml:space="preserve">plateK11rep1_20200429_140316_208_WellH06_PointH06_0006_ChannelDAPI,WF_GFP,TRITC,WF_Cy5,DIA_Seq0780.h5</t>
@@ -264,7 +261,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -582,52 +579,52 @@
         <v>31</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>5</v>
@@ -635,66 +632,66 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
